--- a/public/Excel Templates/CAF.xlsx
+++ b/public/Excel Templates/CAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRIS\hris_api\public\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E668A7E-6743-466D-94F1-BDF1F88541D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF265B-79DE-4E1F-BB51-9C9C22BA1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="1170" windowWidth="26655" windowHeight="11385" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
+    <workbookView xWindow="1020" yWindow="120" windowWidth="26655" windowHeight="11385" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -824,6 +824,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -832,6 +844,70 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -840,83 +916,15 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1317,7 +1325,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1344,61 +1352,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1408,12 +1416,12 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9"/>
@@ -1422,11 +1430,11 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1434,77 +1442,77 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -1532,16 +1540,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1554,10 +1562,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="74"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1582,18 +1590,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="40"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="45"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -1607,20 +1615,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="18"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="46"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1634,20 +1642,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="18"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="46"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -1661,20 +1669,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="18"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="46"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -1685,18 +1693,18 @@
     <row r="14" spans="1:20">
       <c r="A14" s="14"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="18"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="46"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -1710,18 +1718,18 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="48"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="49"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
@@ -1835,12 +1843,12 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
       <c r="T20" s="21"/>
     </row>
     <row r="21" spans="1:20">
@@ -1863,26 +1871,26 @@
       <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76" t="s">
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="76"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="26"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
@@ -1890,26 +1898,26 @@
       <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79" t="s">
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="79"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -1918,56 +1926,56 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79" t="s">
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="79"/>
-      <c r="O24" s="75" t="s">
+      <c r="N24" s="77"/>
+      <c r="O24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
       <c r="S24" s="28"/>
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79" t="s">
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="79"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="26"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
@@ -2044,86 +2052,86 @@
       <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76" t="s">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76" t="s">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="28"/>
       <c r="T29" s="21"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79" t="s">
+      <c r="N30" s="77"/>
+      <c r="O30" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
       <c r="S30" s="28"/>
       <c r="T30" s="21"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="79"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -2200,42 +2208,11 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="M9:N9"/>
@@ -2252,13 +2229,44 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:R29">
     <cfRule type="expression" dxfId="8" priority="19">
@@ -2314,61 +2322,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2378,12 +2386,12 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9"/>
@@ -2392,11 +2400,11 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2404,77 +2412,77 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -2502,16 +2510,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2524,10 +2532,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="74"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -2552,18 +2560,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="40"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="45"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -2577,20 +2585,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="18"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="46"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -2604,20 +2612,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="18"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="46"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -2631,20 +2639,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="18"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="46"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2655,18 +2663,18 @@
     <row r="14" spans="1:20">
       <c r="A14" s="14"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="18"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="46"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -2680,18 +2688,18 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="48"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="49"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
@@ -2805,12 +2813,12 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
       <c r="T20" s="21"/>
     </row>
     <row r="21" spans="1:20">
@@ -2833,26 +2841,26 @@
       <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76" t="s">
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="76"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="26"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
@@ -2860,26 +2868,26 @@
       <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79" t="s">
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="79"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -2888,56 +2896,56 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79" t="s">
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="79"/>
-      <c r="O24" s="75" t="s">
+      <c r="N24" s="77"/>
+      <c r="O24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
       <c r="S24" s="28"/>
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79" t="s">
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="79"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="26"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
@@ -3014,86 +3022,86 @@
       <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76" t="s">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76" t="s">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="28"/>
       <c r="T29" s="21"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79" t="s">
+      <c r="N30" s="77"/>
+      <c r="O30" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
       <c r="S30" s="28"/>
       <c r="T30" s="21"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="79"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -3170,43 +3178,12 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:N31"/>
@@ -3223,12 +3200,43 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="O4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:R29">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -3284,61 +3292,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3348,12 +3356,12 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9"/>
@@ -3362,11 +3370,11 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3374,77 +3382,77 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -3472,16 +3480,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -3494,10 +3502,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="74"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3522,18 +3530,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="40"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="45"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -3547,20 +3555,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="18"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="46"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -3574,20 +3582,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="18"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="46"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -3601,20 +3609,20 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="18"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="46"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -3625,18 +3633,18 @@
     <row r="14" spans="1:20">
       <c r="A14" s="14"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="18"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="46"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -3650,18 +3658,18 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="48"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="49"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
@@ -3775,12 +3783,12 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
       <c r="T20" s="21"/>
     </row>
     <row r="21" spans="1:20">
@@ -3803,26 +3811,26 @@
       <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76" t="s">
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="76"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="26"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
@@ -3830,26 +3838,26 @@
       <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79" t="s">
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="79"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -3858,56 +3866,56 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79" t="s">
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="79"/>
-      <c r="O24" s="75" t="s">
+      <c r="N24" s="77"/>
+      <c r="O24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
       <c r="S24" s="28"/>
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79" t="s">
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="79"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="26"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
@@ -3984,86 +3992,86 @@
       <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76" t="s">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76" t="s">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="28"/>
       <c r="T29" s="21"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79" t="s">
+      <c r="N30" s="77"/>
+      <c r="O30" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
       <c r="S30" s="28"/>
       <c r="T30" s="21"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="79"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -4140,43 +4148,12 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:N31"/>
@@ -4193,12 +4170,43 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="O4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:R29">
     <cfRule type="expression" dxfId="2" priority="3">

--- a/public/Excel Templates/CAF.xlsx
+++ b/public/Excel Templates/CAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRIS\hris_api\public\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF265B-79DE-4E1F-BB51-9C9C22BA1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80044FDC-6564-4A8C-8AE8-1B42991A1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="120" windowWidth="26655" windowHeight="11385" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
+    <workbookView xWindow="2055" yWindow="1155" windowWidth="26655" windowHeight="11385" activeTab="2" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,25 +630,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -724,40 +705,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,10 +731,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -800,29 +743,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -836,40 +838,48 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -920,20 +930,71 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1324,14 +1385,14 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="28" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
@@ -1339,59 +1400,59 @@
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="30" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="21" customWidth="1"/>
+    <col min="18" max="18" width="10" style="16" customWidth="1"/>
     <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="74" t="s">
@@ -1402,15 +1463,15 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="31">
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1430,15 +1491,15 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1463,12 +1524,12 @@
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="74" t="s">
@@ -1478,12 +1539,12 @@
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1502,12 +1563,12 @@
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1540,16 +1601,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1562,10 +1623,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="84"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1578,164 +1639,164 @@
       <c r="R9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="38">
+    <row r="10" spans="1:20" s="52" customFormat="1">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="54"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="70"/>
       <c r="N10" s="71"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="63"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="14"/>
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" s="52" customFormat="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="72"/>
       <c r="N11" s="73"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="14"/>
-      <c r="B12" s="44">
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
+    </row>
+    <row r="12" spans="1:20" s="52" customFormat="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="72"/>
       <c r="N12" s="73"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="59"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="14"/>
-      <c r="B13" s="44">
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="1:20" s="52" customFormat="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="72"/>
       <c r="N13" s="73"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="59"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="14"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="21"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" s="52" customFormat="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="72"/>
       <c r="N14" s="73"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="62"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="47">
+      <c r="A15" s="39"/>
+      <c r="B15" s="33">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="57"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="66"/>
       <c r="N15" s="67"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="61"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="91"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
@@ -1750,16 +1811,16 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="21"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
@@ -1769,20 +1830,20 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="T17" s="21"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
@@ -1792,20 +1853,20 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="5"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="T18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" thickBot="1">
       <c r="A19" s="5"/>
@@ -1813,20 +1874,20 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="T19" s="21"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5"/>
@@ -1834,22 +1895,22 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="T20" s="21"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5"/>
@@ -1857,135 +1918,135 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="5"/>
       <c r="O21" s="8"/>
       <c r="R21" s="2"/>
-      <c r="T21" s="21"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78" t="s">
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="T22" s="21"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="21"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="79" t="s">
+      <c r="N24" s="79"/>
+      <c r="O24" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="21"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="21"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="8"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1998,18 +2059,18 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="80"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="21"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="8"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2026,12 +2087,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="21"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="8"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2048,100 +2109,100 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="21"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78" t="s">
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="80"/>
+      <c r="O29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="21"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77" t="s">
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77" t="s">
+      <c r="N30" s="79"/>
+      <c r="O30" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="21"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77" t="s">
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="77"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="21"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2149,21 +2210,21 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="32"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="21"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="31"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2171,20 +2232,20 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="32"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="8"/>
-      <c r="T33" s="21"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2192,9 +2253,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="8"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2202,17 +2263,19 @@
       <c r="R34" s="8"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="M9:N9"/>
@@ -2228,10 +2291,17 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:N29"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:R30"/>
     <mergeCell ref="O29:R29"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="I23:L23"/>
@@ -2243,14 +2313,7 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="C13:E13"/>
@@ -2266,20 +2329,19 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:R29">
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:T15 A9:T9 A10:C15 I10:M15 F13:F15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="O10:T15 A9:T9 I10:M10 A10:C15 J11:M13 F13:F15 I14:M15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$T9="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R15">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2294,14 +2356,14 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="28" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
@@ -2309,59 +2371,59 @@
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="30" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="21" customWidth="1"/>
+    <col min="18" max="18" width="10" style="16" customWidth="1"/>
     <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="74" t="s">
@@ -2372,15 +2434,15 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="31">
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -2400,15 +2462,15 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2433,12 +2495,12 @@
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="74" t="s">
@@ -2448,12 +2510,12 @@
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -2472,12 +2534,12 @@
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2510,16 +2572,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2532,10 +2594,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="84"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -2548,164 +2610,164 @@
       <c r="R9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="38">
+    <row r="10" spans="1:20" s="52" customFormat="1">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="75"/>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="76"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="54"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="70"/>
       <c r="N10" s="71"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="63"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="14"/>
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" s="52" customFormat="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="72"/>
       <c r="N11" s="73"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="14"/>
-      <c r="B12" s="44">
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
+    </row>
+    <row r="12" spans="1:20" s="52" customFormat="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="72"/>
       <c r="N12" s="73"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="59"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="14"/>
-      <c r="B13" s="44">
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="1:20" s="52" customFormat="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="72"/>
       <c r="N13" s="73"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="59"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="14"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="21"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" s="52" customFormat="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="72"/>
       <c r="N14" s="73"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="62"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="47">
+      <c r="A15" s="39"/>
+      <c r="B15" s="33">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="57"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="66"/>
       <c r="N15" s="67"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="61"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="91"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
@@ -2720,16 +2782,16 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="21"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
@@ -2739,20 +2801,20 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="T17" s="21"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
@@ -2762,20 +2824,20 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="5"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="T18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" thickBot="1">
       <c r="A19" s="5"/>
@@ -2783,20 +2845,20 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="T19" s="21"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5"/>
@@ -2804,22 +2866,22 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="T20" s="21"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5"/>
@@ -2827,135 +2889,135 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="5"/>
       <c r="O21" s="8"/>
       <c r="R21" s="2"/>
-      <c r="T21" s="21"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78" t="s">
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="T22" s="21"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="21"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="79" t="s">
+      <c r="N24" s="79"/>
+      <c r="O24" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="21"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="21"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="8"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2968,18 +3030,18 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="80"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="21"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="8"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2996,12 +3058,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="21"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="8"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3018,100 +3080,100 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="21"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78" t="s">
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="80"/>
+      <c r="O29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="21"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77" t="s">
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77" t="s">
+      <c r="N30" s="79"/>
+      <c r="O30" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="21"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77" t="s">
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="77"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="21"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3119,21 +3181,21 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="32"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="21"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="31"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3141,20 +3203,20 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="32"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="8"/>
-      <c r="T33" s="21"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3162,9 +3224,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="8"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -3172,12 +3234,12 @@
       <c r="R34" s="8"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="M14:N14"/>
@@ -3216,6 +3278,7 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:H13"/>
@@ -3243,7 +3306,7 @@
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:T15 A9:T9 A10:C15 I10:M15 F13:F15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
+  <conditionalFormatting sqref="O10:T15 A9:T9 I10:M10 A10:C15 J11:M13 F13:F15 I14:M15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$T9="ABSENT"</formula>
     </cfRule>
@@ -3264,14 +3327,14 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="28" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
@@ -3279,59 +3342,59 @@
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="30" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="21" customWidth="1"/>
+    <col min="18" max="18" width="10" style="16" customWidth="1"/>
     <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="74" t="s">
@@ -3342,15 +3405,15 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="31">
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -3370,15 +3433,15 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3403,12 +3466,12 @@
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="74" t="s">
@@ -3418,12 +3481,12 @@
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3442,12 +3505,12 @@
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3480,16 +3543,16 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="39" thickBot="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
@@ -3502,10 +3565,10 @@
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="84"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3518,164 +3581,164 @@
       <c r="R9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="38">
+    <row r="10" spans="1:20" s="52" customFormat="1">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="75"/>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="76"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="54"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="70"/>
       <c r="N10" s="71"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="63"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="14"/>
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" s="52" customFormat="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="72"/>
       <c r="N11" s="73"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="14"/>
-      <c r="B12" s="44">
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
+    </row>
+    <row r="12" spans="1:20" s="52" customFormat="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="72"/>
       <c r="N12" s="73"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="59"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="14"/>
-      <c r="B13" s="44">
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="1:20" s="52" customFormat="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="72"/>
       <c r="N13" s="73"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="59"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="14"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="21"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" s="52" customFormat="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="72"/>
       <c r="N14" s="73"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="62"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="47">
+      <c r="A15" s="39"/>
+      <c r="B15" s="33">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="57"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="66"/>
       <c r="N15" s="67"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="61"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="91"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
@@ -3690,16 +3753,16 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="21"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
@@ -3709,20 +3772,20 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="T17" s="21"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
@@ -3732,20 +3795,20 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="5"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="T18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" thickBot="1">
       <c r="A19" s="5"/>
@@ -3753,20 +3816,20 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="T19" s="21"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5"/>
@@ -3774,22 +3837,22 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="T20" s="21"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5"/>
@@ -3797,135 +3860,135 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="5"/>
       <c r="O21" s="8"/>
       <c r="R21" s="2"/>
-      <c r="T21" s="21"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78" t="s">
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="T22" s="21"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="21"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="79" t="s">
+      <c r="N24" s="79"/>
+      <c r="O24" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="21"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="21"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="8"/>
-      <c r="B26" s="29"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3938,18 +4001,18 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="80"/>
+      <c r="P26" s="82"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="21"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="8"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3966,12 +4029,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="21"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="8"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3988,100 +4051,100 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="21"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78" t="s">
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="80"/>
+      <c r="O29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="21"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77" t="s">
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77" t="s">
+      <c r="N30" s="79"/>
+      <c r="O30" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="21"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77" t="s">
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="77"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="21"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4089,21 +4152,21 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="32"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="21"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="31"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4111,20 +4174,20 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="32"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="8"/>
-      <c r="T33" s="21"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4132,9 +4195,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="8"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -4142,12 +4205,12 @@
       <c r="R34" s="8"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="M14:N14"/>
@@ -4186,6 +4249,7 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:H13"/>
@@ -4213,7 +4277,7 @@
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:T15 A9:T9 A10:C15 I10:M15 F13:F15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
+  <conditionalFormatting sqref="O10:T15 A9:T9 I10:M10 A10:C15 J11:M13 F13:F15 I14:M15 A16:Q16 S16:T16 A17:T22 A23:H23 M23:T23 A24:T28 A30:N36 O30:T253 B37:N37 A38:N253">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$T9="ABSENT"</formula>
     </cfRule>

--- a/public/Excel Templates/CAF.xlsx
+++ b/public/Excel Templates/CAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRIS\hris_api\public\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEE07A-6626-443E-BE88-30BE27DCF6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5F4CC-CFE5-4C8E-832D-95D5670C7126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +355,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -587,7 +600,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,25 +732,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -750,14 +744,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -766,26 +752,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -799,30 +765,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -832,38 +774,169 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -882,76 +955,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1494,10 +1519,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1518,54 +1543,57 @@
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="16" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
@@ -1574,11 +1602,11 @@
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1588,25 +1616,26 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1614,14 +1643,15 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
         <v>51</v>
       </c>
@@ -1635,14 +1665,15 @@
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
@@ -1650,23 +1681,24 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
@@ -1674,63 +1706,66 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" hidden="1">
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="7"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" hidden="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="7"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -1748,20 +1783,21 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="39" thickBot="1">
-      <c r="A11" s="74" t="s">
+      <c r="R10" s="8"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="39" thickBot="1">
+      <c r="A11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="11" t="s">
         <v>11</v>
       </c>
@@ -1774,10 +1810,10 @@
       <c r="L11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1787,169 +1823,176 @@
       <c r="Q11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="11"/>
+      <c r="S11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="T11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="52" customFormat="1">
-      <c r="A12" s="44">
+    <row r="12" spans="1:21" s="40" customFormat="1">
+      <c r="A12" s="37">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-    </row>
-    <row r="13" spans="1:20" s="52" customFormat="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54">
+      <c r="B12" s="38"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+    </row>
+    <row r="13" spans="1:21" s="40" customFormat="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="60"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="48"/>
       <c r="T13" s="61"/>
-    </row>
-    <row r="14" spans="1:20" s="52" customFormat="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54">
+      <c r="U13" s="62"/>
+    </row>
+    <row r="14" spans="1:21" s="40" customFormat="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" s="52" customFormat="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="63"/>
+    </row>
+    <row r="15" spans="1:21" s="40" customFormat="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" s="52" customFormat="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A17" s="39"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="63"/>
+    </row>
+    <row r="16" spans="1:21" s="40" customFormat="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="63"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A17" s="34"/>
       <c r="B17" s="33">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="63"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1971,9 +2014,10 @@
       <c r="Q18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="15"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1994,9 +2038,10 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="S19" s="8"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -2015,9 +2060,10 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1">
+      <c r="S20" s="17"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2036,9 +2082,10 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="S21" s="19"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2053,15 +2100,16 @@
       <c r="L22" s="10"/>
       <c r="M22" s="15"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -2077,123 +2125,127 @@
       <c r="M23" s="15"/>
       <c r="N23" s="5"/>
       <c r="O23" s="8"/>
-      <c r="R23" s="2"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="78" t="s">
+      <c r="S23" s="2"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78" t="s">
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A25" s="82" t="s">
+      <c r="S24" s="17"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82" t="s">
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="82"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="82" t="s">
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82" t="s">
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="77" t="s">
+      <c r="N26" s="85"/>
+      <c r="O26" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="82" t="s">
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="16"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="S27" s="20"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="8"/>
       <c r="B28" s="24"/>
       <c r="C28" s="8"/>
@@ -2208,16 +2260,17 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="83" t="s">
+      <c r="O28" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="83"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="8"/>
       <c r="B29" s="24"/>
       <c r="C29" s="8"/>
@@ -2235,11 +2288,12 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8"/>
       <c r="B30" s="24"/>
       <c r="C30" s="8"/>
@@ -2257,99 +2311,103 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="78" t="s">
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78" t="s">
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78" t="s">
+      <c r="N31" s="86"/>
+      <c r="O31" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="1:20" ht="18.75">
-      <c r="A32" s="82" t="s">
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" ht="18.75">
+      <c r="A32" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82" t="s">
+      <c r="N32" s="85"/>
+      <c r="O32" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="16"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="82" t="s">
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="82"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="8"/>
@@ -2366,11 +2424,12 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="26"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -2388,10 +2447,11 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="8"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="26"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -2409,16 +2469,61 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O4:U4"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
@@ -2434,62 +2539,18 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
-  <conditionalFormatting sqref="O31:R31">
+  <conditionalFormatting sqref="O31:S31">
     <cfRule type="expression" dxfId="8" priority="19">
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:T17 A11:T11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:Q18 S18:T18 A19:T24 A25:H25 M25:T25 A26:T30 A32:N38 O32:T255 B39:N39 A40:N255">
+  <conditionalFormatting sqref="O12:U17 A11:U11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
     <cfRule type="expression" dxfId="7" priority="17">
-      <formula>$T11="ABSENT"</formula>
+      <formula>$U11="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R17">
+  <conditionalFormatting sqref="S12:S17">
     <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2503,10 +2564,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2527,54 +2588,57 @@
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="16" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
@@ -2583,11 +2647,11 @@
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2597,25 +2661,26 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2623,14 +2688,15 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
         <v>51</v>
       </c>
@@ -2644,14 +2710,15 @@
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
@@ -2659,23 +2726,24 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
@@ -2683,63 +2751,66 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" hidden="1">
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="7"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" hidden="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="7"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -2757,20 +2828,21 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="39" thickBot="1">
-      <c r="A11" s="74" t="s">
+      <c r="R10" s="8"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="39" thickBot="1">
+      <c r="A11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="11" t="s">
         <v>11</v>
       </c>
@@ -2783,10 +2855,10 @@
       <c r="L11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="11" t="s">
         <v>16</v>
       </c>
@@ -2796,169 +2868,176 @@
       <c r="Q11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="11"/>
+      <c r="S11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="T11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="52" customFormat="1">
-      <c r="A12" s="44">
+    <row r="12" spans="1:21" s="40" customFormat="1">
+      <c r="A12" s="37">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-    </row>
-    <row r="13" spans="1:20" s="52" customFormat="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54">
+      <c r="B12" s="38"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+    </row>
+    <row r="13" spans="1:21" s="40" customFormat="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="60"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="48"/>
       <c r="T13" s="61"/>
-    </row>
-    <row r="14" spans="1:20" s="52" customFormat="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54">
+      <c r="U13" s="62"/>
+    </row>
+    <row r="14" spans="1:21" s="40" customFormat="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" s="52" customFormat="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="63"/>
+    </row>
+    <row r="15" spans="1:21" s="40" customFormat="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" s="52" customFormat="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A17" s="39"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="63"/>
+    </row>
+    <row r="16" spans="1:21" s="40" customFormat="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="63"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A17" s="34"/>
       <c r="B17" s="33">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="63"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -2980,9 +3059,10 @@
       <c r="Q18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="15"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -3003,9 +3083,10 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="S19" s="8"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -3024,9 +3105,10 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1">
+      <c r="S20" s="17"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -3045,9 +3127,10 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="S21" s="19"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -3062,15 +3145,16 @@
       <c r="L22" s="10"/>
       <c r="M22" s="15"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -3086,123 +3170,127 @@
       <c r="M23" s="15"/>
       <c r="N23" s="5"/>
       <c r="O23" s="8"/>
-      <c r="R23" s="2"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="78" t="s">
+      <c r="S23" s="2"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78" t="s">
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A25" s="82" t="s">
+      <c r="S24" s="17"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82" t="s">
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="82"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="82" t="s">
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82" t="s">
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="77" t="s">
+      <c r="N26" s="85"/>
+      <c r="O26" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="82" t="s">
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="16"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="S27" s="20"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="8"/>
       <c r="B28" s="24"/>
       <c r="C28" s="8"/>
@@ -3217,16 +3305,17 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="83" t="s">
+      <c r="O28" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="83"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="8"/>
       <c r="B29" s="24"/>
       <c r="C29" s="8"/>
@@ -3244,11 +3333,12 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8"/>
       <c r="B30" s="24"/>
       <c r="C30" s="8"/>
@@ -3266,99 +3356,103 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="78" t="s">
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78" t="s">
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78" t="s">
+      <c r="N31" s="86"/>
+      <c r="O31" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="1:20" ht="18.75">
-      <c r="A32" s="82" t="s">
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" ht="18.75">
+      <c r="A32" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82" t="s">
+      <c r="N32" s="85"/>
+      <c r="O32" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="16"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="82" t="s">
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="82"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="8"/>
@@ -3375,11 +3469,12 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="26"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -3397,10 +3492,11 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="8"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="26"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -3418,28 +3514,49 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C12:H12"/>
@@ -3454,51 +3571,31 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="O4:U4"/>
   </mergeCells>
-  <conditionalFormatting sqref="O31:R31">
+  <conditionalFormatting sqref="O31:S31">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:T17 A11:T11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:Q18 S18:T18 A19:T24 A25:H25 M25:T25 A26:T30 A32:N38 O32:T255 B39:N39 A40:N255">
+  <conditionalFormatting sqref="O12:U17 A11:U11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$T11="ABSENT"</formula>
+      <formula>$U11="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R17">
+  <conditionalFormatting sqref="S12:S17">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3512,10 +3609,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3536,54 +3633,57 @@
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="16" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
@@ -3592,11 +3692,11 @@
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3606,25 +3706,26 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3632,14 +3733,15 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
         <v>51</v>
       </c>
@@ -3653,14 +3755,15 @@
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
@@ -3668,23 +3771,24 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
@@ -3692,63 +3796,66 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" hidden="1">
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="7"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" hidden="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="7"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -3766,20 +3873,21 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="39" thickBot="1">
-      <c r="A11" s="74" t="s">
+      <c r="R10" s="8"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="39" thickBot="1">
+      <c r="A11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="11" t="s">
         <v>11</v>
       </c>
@@ -3792,10 +3900,10 @@
       <c r="L11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="11" t="s">
         <v>16</v>
       </c>
@@ -3805,169 +3913,176 @@
       <c r="Q11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="11"/>
+      <c r="S11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="T11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="52" customFormat="1">
-      <c r="A12" s="44">
+    <row r="12" spans="1:21" s="40" customFormat="1">
+      <c r="A12" s="37">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-    </row>
-    <row r="13" spans="1:20" s="52" customFormat="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54">
+      <c r="B12" s="38"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="39"/>
+    </row>
+    <row r="13" spans="1:21" s="40" customFormat="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="60"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="48"/>
       <c r="T13" s="61"/>
-    </row>
-    <row r="14" spans="1:20" s="52" customFormat="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54">
+      <c r="U13" s="43"/>
+    </row>
+    <row r="14" spans="1:21" s="40" customFormat="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" s="52" customFormat="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="44"/>
+    </row>
+    <row r="15" spans="1:21" s="40" customFormat="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" s="52" customFormat="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A17" s="39"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="44"/>
+    </row>
+    <row r="16" spans="1:21" s="40" customFormat="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="44"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A17" s="34"/>
       <c r="B17" s="33">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="63"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="45"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3989,9 +4104,10 @@
       <c r="Q18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="15"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -4012,9 +4128,10 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="S19" s="8"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -4033,9 +4150,10 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1">
+      <c r="S20" s="17"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -4054,9 +4172,10 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="S21" s="19"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -4071,15 +4190,16 @@
       <c r="L22" s="10"/>
       <c r="M22" s="15"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -4095,123 +4215,127 @@
       <c r="M23" s="15"/>
       <c r="N23" s="5"/>
       <c r="O23" s="8"/>
-      <c r="R23" s="2"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="78" t="s">
+      <c r="S23" s="2"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78" t="s">
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A25" s="82" t="s">
+      <c r="S24" s="17"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82" t="s">
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="82"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="82" t="s">
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82" t="s">
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="77" t="s">
+      <c r="N26" s="85"/>
+      <c r="O26" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="82" t="s">
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="16"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="S27" s="20"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="8"/>
       <c r="B28" s="24"/>
       <c r="C28" s="8"/>
@@ -4226,16 +4350,17 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="83" t="s">
+      <c r="O28" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="83"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="8"/>
       <c r="B29" s="24"/>
       <c r="C29" s="8"/>
@@ -4253,11 +4378,12 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8"/>
       <c r="B30" s="24"/>
       <c r="C30" s="8"/>
@@ -4275,99 +4401,103 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="78" t="s">
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78" t="s">
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78" t="s">
+      <c r="N31" s="86"/>
+      <c r="O31" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="1:20" ht="18.75">
-      <c r="A32" s="82" t="s">
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" ht="18.75">
+      <c r="A32" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82" t="s">
+      <c r="N32" s="85"/>
+      <c r="O32" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="16"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="82" t="s">
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="82"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="8"/>
@@ -4384,11 +4514,12 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="26"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -4406,10 +4537,11 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="8"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="26"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -4427,28 +4559,49 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C12:H12"/>
@@ -4463,51 +4616,31 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="O4:U4"/>
   </mergeCells>
-  <conditionalFormatting sqref="O31:R31">
+  <conditionalFormatting sqref="O31:S31">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:T17 A11:T11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:Q18 S18:T18 A19:T24 A25:H25 M25:T25 A26:T30 A32:N38 O32:T255 B39:N39 A40:N255">
+  <conditionalFormatting sqref="O12:U17 A11:U11 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$T11="ABSENT"</formula>
+      <formula>$U11="ABSENT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R17">
+  <conditionalFormatting sqref="S12:S17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/public/Excel Templates/CAF.xlsx
+++ b/public/Excel Templates/CAF.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRIS\hris_api\public\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5F4CC-CFE5-4C8E-832D-95D5670C7126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A66E213-2698-45A8-B21E-88CC94A2EFF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <definedName name="Position">#REF!</definedName>
     <definedName name="TRAINING">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>C O M P A R A T I V E    A S S E S S M E N T   F O R M</t>
   </si>
@@ -168,104 +167,31 @@
     <t>NAME OF CANDIDATE</t>
   </si>
   <si>
-    <t>BRIAN A. CAMHIT</t>
-  </si>
-  <si>
-    <t>RUBEN E. PAOAD</t>
-  </si>
-  <si>
-    <t>FLORENCIO V. BENTREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provincial Human Resource </t>
-  </si>
-  <si>
-    <t>SP Member &amp; Committee Chairman</t>
-  </si>
-  <si>
-    <t>SP Member &amp; Committee Chairman on</t>
-  </si>
-  <si>
-    <t>Management &amp; Development Officer</t>
-  </si>
-  <si>
-    <t>on Labor &amp; Employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personnel Administration </t>
-  </si>
-  <si>
     <t>DATE OF EFFECTIVITY</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Temporary Presiding Officer</t>
   </si>
   <si>
     <t>APPROVED:</t>
   </si>
   <si>
-    <t>CHARLIE B. PINAS</t>
-  </si>
-  <si>
-    <t>MELIARAZON F. DULAY, MD, FPOGS</t>
-  </si>
-  <si>
-    <t>FREZILLA M. SIMEON</t>
-  </si>
-  <si>
-    <t>MELCHOR D. DICLAS, MD</t>
-  </si>
-  <si>
-    <r>
-      <t>BPGEA 2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Level Representative</t>
-    </r>
-  </si>
-  <si>
-    <t>PHO I / Acting Chief of Hospital III</t>
-  </si>
-  <si>
-    <t>Executive Assistant III</t>
-  </si>
-  <si>
     <t>Provincial Governor</t>
   </si>
   <si>
-    <t>PGO - Benguet provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
+    <t xml:space="preserve">QUALIFICATION STANDARDS </t>
   </si>
   <si>
-    <t xml:space="preserve">QUALIFICATION STANDARDS </t>
+    <t>This agency provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$₱-464]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,12 +254,6 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -597,8 +517,8 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -697,11 +617,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -778,47 +698,43 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -826,29 +742,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -856,50 +772,54 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -907,84 +827,84 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{DBB8CC36-C630-46B8-9C60-DD68AAC7B8BC}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A236E0A5-31F6-4470-8E0F-6DFE3EEF00F2}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1076,7 +996,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="perm"/>
@@ -1157,7 +1077,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PDO I"/>
@@ -1515,14 +1435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39441AF3-F7FD-4DC8-94BA-EE337756DF43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1653,7 +1573,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -2129,9 +2049,7 @@
       <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="86" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -2139,15 +2057,11 @@
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
-      <c r="I24" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="I24" s="86"/>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
-      <c r="M24" s="86" t="s">
-        <v>31</v>
-      </c>
+      <c r="M24" s="86"/>
       <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
@@ -2157,9 +2071,7 @@
       <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="85" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -2167,15 +2079,11 @@
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
-      <c r="I25" s="85" t="s">
-        <v>33</v>
-      </c>
+      <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
-      <c r="M25" s="85" t="s">
-        <v>34</v>
-      </c>
+      <c r="M25" s="85"/>
       <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -2186,9 +2094,7 @@
       <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="85" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="85"/>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -2196,18 +2102,14 @@
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="85" t="s">
-        <v>36</v>
-      </c>
+      <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="85"/>
       <c r="L26" s="85"/>
-      <c r="M26" s="85" t="s">
-        <v>37</v>
-      </c>
+      <c r="M26" s="85"/>
       <c r="N26" s="85"/>
       <c r="O26" s="87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P26" s="87"/>
       <c r="Q26" s="87"/>
@@ -2217,9 +2119,7 @@
       <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="85"/>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
@@ -2227,15 +2127,11 @@
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
-      <c r="I27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I27" s="85"/>
       <c r="J27" s="85"/>
       <c r="K27" s="85"/>
       <c r="L27" s="85"/>
-      <c r="M27" s="85" t="s">
-        <v>40</v>
-      </c>
+      <c r="M27" s="85"/>
       <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
@@ -2261,7 +2157,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
@@ -2317,9 +2213,7 @@
       <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="86" t="s">
-        <v>42</v>
-      </c>
+      <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -2327,19 +2221,13 @@
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
-      <c r="I31" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="I31" s="86"/>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
-      <c r="M31" s="86" t="s">
-        <v>44</v>
-      </c>
+      <c r="M31" s="86"/>
       <c r="N31" s="86"/>
-      <c r="O31" s="86" t="s">
-        <v>45</v>
-      </c>
+      <c r="O31" s="86"/>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
@@ -2347,10 +2235,8 @@
       <c r="T31" s="23"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="18.75">
-      <c r="A32" s="85" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:21">
+      <c r="A32" s="85"/>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
@@ -2358,18 +2244,14 @@
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
       <c r="H32" s="85"/>
-      <c r="I32" s="85" t="s">
-        <v>47</v>
-      </c>
+      <c r="I32" s="85"/>
       <c r="J32" s="85"/>
       <c r="K32" s="85"/>
       <c r="L32" s="85"/>
-      <c r="M32" s="85" t="s">
-        <v>48</v>
-      </c>
+      <c r="M32" s="85"/>
       <c r="N32" s="85"/>
       <c r="O32" s="85" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P32" s="85"/>
       <c r="Q32" s="85"/>
@@ -2379,9 +2261,7 @@
       <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A33" s="85"/>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
@@ -2389,15 +2269,11 @@
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
-      <c r="I33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I33" s="85"/>
       <c r="J33" s="85"/>
       <c r="K33" s="85"/>
       <c r="L33" s="85"/>
-      <c r="M33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="M33" s="85"/>
       <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2474,7 +2350,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2560,14 +2436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0546A6F-3D66-409E-AB7A-9126D06267A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2698,7 +2574,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -3174,9 +3050,7 @@
       <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="86" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -3184,15 +3058,11 @@
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
-      <c r="I24" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="I24" s="86"/>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
-      <c r="M24" s="86" t="s">
-        <v>31</v>
-      </c>
+      <c r="M24" s="86"/>
       <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
@@ -3202,9 +3072,7 @@
       <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="85" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -3212,15 +3080,11 @@
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
-      <c r="I25" s="85" t="s">
-        <v>33</v>
-      </c>
+      <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
-      <c r="M25" s="85" t="s">
-        <v>34</v>
-      </c>
+      <c r="M25" s="85"/>
       <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -3231,9 +3095,7 @@
       <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="85" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="85"/>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -3241,18 +3103,14 @@
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="85" t="s">
-        <v>36</v>
-      </c>
+      <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="85"/>
       <c r="L26" s="85"/>
-      <c r="M26" s="85" t="s">
-        <v>37</v>
-      </c>
+      <c r="M26" s="85"/>
       <c r="N26" s="85"/>
       <c r="O26" s="87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P26" s="87"/>
       <c r="Q26" s="87"/>
@@ -3262,9 +3120,7 @@
       <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="85"/>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
@@ -3272,15 +3128,11 @@
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
-      <c r="I27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I27" s="85"/>
       <c r="J27" s="85"/>
       <c r="K27" s="85"/>
       <c r="L27" s="85"/>
-      <c r="M27" s="85" t="s">
-        <v>40</v>
-      </c>
+      <c r="M27" s="85"/>
       <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
@@ -3306,7 +3158,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
@@ -3362,9 +3214,7 @@
       <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="86" t="s">
-        <v>42</v>
-      </c>
+      <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -3372,19 +3222,13 @@
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
-      <c r="I31" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="I31" s="86"/>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
-      <c r="M31" s="86" t="s">
-        <v>44</v>
-      </c>
+      <c r="M31" s="86"/>
       <c r="N31" s="86"/>
-      <c r="O31" s="86" t="s">
-        <v>45</v>
-      </c>
+      <c r="O31" s="86"/>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
@@ -3392,10 +3236,8 @@
       <c r="T31" s="23"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="18.75">
-      <c r="A32" s="85" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:21">
+      <c r="A32" s="85"/>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
@@ -3403,18 +3245,14 @@
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
       <c r="H32" s="85"/>
-      <c r="I32" s="85" t="s">
-        <v>47</v>
-      </c>
+      <c r="I32" s="85"/>
       <c r="J32" s="85"/>
       <c r="K32" s="85"/>
       <c r="L32" s="85"/>
-      <c r="M32" s="85" t="s">
-        <v>48</v>
-      </c>
+      <c r="M32" s="85"/>
       <c r="N32" s="85"/>
       <c r="O32" s="85" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P32" s="85"/>
       <c r="Q32" s="85"/>
@@ -3424,9 +3262,7 @@
       <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A33" s="85"/>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
@@ -3434,15 +3270,11 @@
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
-      <c r="I33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I33" s="85"/>
       <c r="J33" s="85"/>
       <c r="K33" s="85"/>
       <c r="L33" s="85"/>
-      <c r="M33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="M33" s="85"/>
       <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -3519,7 +3351,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3605,14 +3437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB385367-FBE7-4937-BFF1-6A1339DBB179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3743,7 +3575,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -4219,9 +4051,7 @@
       <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="86" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -4229,15 +4059,11 @@
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
-      <c r="I24" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="I24" s="86"/>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
-      <c r="M24" s="86" t="s">
-        <v>31</v>
-      </c>
+      <c r="M24" s="86"/>
       <c r="N24" s="86"/>
       <c r="O24" s="21"/>
       <c r="P24" s="17"/>
@@ -4247,9 +4073,7 @@
       <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="85" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -4257,15 +4081,11 @@
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
-      <c r="I25" s="85" t="s">
-        <v>33</v>
-      </c>
+      <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
-      <c r="M25" s="85" t="s">
-        <v>34</v>
-      </c>
+      <c r="M25" s="85"/>
       <c r="N25" s="85"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -4276,9 +4096,7 @@
       <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="85" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="85"/>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -4286,18 +4104,14 @@
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="85" t="s">
-        <v>36</v>
-      </c>
+      <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="85"/>
       <c r="L26" s="85"/>
-      <c r="M26" s="85" t="s">
-        <v>37</v>
-      </c>
+      <c r="M26" s="85"/>
       <c r="N26" s="85"/>
       <c r="O26" s="87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P26" s="87"/>
       <c r="Q26" s="87"/>
@@ -4307,9 +4121,7 @@
       <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="85"/>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
@@ -4317,15 +4129,11 @@
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
-      <c r="I27" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I27" s="85"/>
       <c r="J27" s="85"/>
       <c r="K27" s="85"/>
       <c r="L27" s="85"/>
-      <c r="M27" s="85" t="s">
-        <v>40</v>
-      </c>
+      <c r="M27" s="85"/>
       <c r="N27" s="85"/>
       <c r="O27" s="21"/>
       <c r="P27" s="20"/>
@@ -4351,7 +4159,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P28" s="88"/>
       <c r="Q28" s="5"/>
@@ -4407,9 +4215,7 @@
       <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="86" t="s">
-        <v>42</v>
-      </c>
+      <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -4417,19 +4223,13 @@
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
-      <c r="I31" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="I31" s="86"/>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
-      <c r="M31" s="86" t="s">
-        <v>44</v>
-      </c>
+      <c r="M31" s="86"/>
       <c r="N31" s="86"/>
-      <c r="O31" s="86" t="s">
-        <v>45</v>
-      </c>
+      <c r="O31" s="86"/>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
@@ -4437,10 +4237,8 @@
       <c r="T31" s="23"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="18.75">
-      <c r="A32" s="85" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:21">
+      <c r="A32" s="85"/>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
@@ -4448,18 +4246,14 @@
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
       <c r="H32" s="85"/>
-      <c r="I32" s="85" t="s">
-        <v>47</v>
-      </c>
+      <c r="I32" s="85"/>
       <c r="J32" s="85"/>
       <c r="K32" s="85"/>
       <c r="L32" s="85"/>
-      <c r="M32" s="85" t="s">
-        <v>48</v>
-      </c>
+      <c r="M32" s="85"/>
       <c r="N32" s="85"/>
       <c r="O32" s="85" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P32" s="85"/>
       <c r="Q32" s="85"/>
@@ -4469,9 +4263,7 @@
       <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="A33" s="85"/>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
@@ -4479,15 +4271,11 @@
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
-      <c r="I33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="I33" s="85"/>
       <c r="J33" s="85"/>
       <c r="K33" s="85"/>
       <c r="L33" s="85"/>
-      <c r="M33" s="85" t="s">
-        <v>39</v>
-      </c>
+      <c r="M33" s="85"/>
       <c r="N33" s="85"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -4564,7 +4352,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="26" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
